--- a/biology/Microbiologie/Codonosiga/Codonosiga.xlsx
+++ b/biology/Microbiologie/Codonosiga/Codonosiga.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Codonosiga est un genre d'organismes unicellulaires de petite taille du règne des Choanomonada. Ce sont des organismes munis d'une collerette d'où sort un flagelle, organe de préhension de proies (bactéries). Généralement fixés grâce à leur pédoncule, ils peuvent se détacher et nager avec son flagelle.
 Ils se multiplient par division binaire longitudinale.
@@ -512,7 +524,9 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Selon AlgaeBASE (site consulté le 15 décembre 2017), il y a 19 espèces:
 C. allioides - C. assimilis - C. botrytis - C. candelabrum - C. corymbosa - C. cymosa - C. dichotoma - C. echinata - C. florea - C. furcata - C. grossularia - C. kentii - C. longipes - C. magnifica - C. pulcherrima - C. pyriformis - C. steinii - C. umbellata - C. utriculus
